--- a/settings5.xlsx
+++ b/settings5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Path</t>
   </si>
@@ -65,6 +65,9 @@
     <t>RAI_PTH</t>
   </si>
   <si>
+    <t>annotations</t>
+  </si>
+  <si>
     <t>df</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>/testpath/var</t>
+  </si>
+  <si>
+    <t>['test']</t>
   </si>
   <si>
     <t>df1</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -539,7 +545,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -549,11 +555,8 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -561,13 +564,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -577,19 +580,22 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -599,11 +605,8 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -611,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -627,7 +630,21 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>1</v>
       </c>
     </row>
